--- a/employee_data.xlsx
+++ b/employee_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\works\기타\인사팀 자동화\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\works\기타\인사팀 자동화\interview_scheduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4F79B2-C933-42C5-AC65-C429638C4836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAD1295-A240-4290-889C-846B88A2F679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2355" windowWidth="21555" windowHeight="12855" xr2:uid="{4A936CD7-6CD0-4EE6-9CA4-ED4D89A062C0}"/>
+    <workbookView xWindow="345" yWindow="2625" windowWidth="21555" windowHeight="12855" xr2:uid="{4A936CD7-6CD0-4EE6-9CA4-ED4D89A062C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>사번</t>
   </si>
@@ -72,6 +72,9 @@
   <si>
     <t>김희수</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mkbang@ajnet.co.kr</t>
   </si>
 </sst>
 </file>
@@ -508,7 +511,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -552,7 +555,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -587,9 +590,8 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{34597E8E-B5FE-476B-B474-E202A254E714}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{D6CC8B2A-1CBA-49ED-B4FA-612FE48D0B63}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{C4FEC3CC-9A99-433E-84EC-02AF1BF8DA6E}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{948CC883-2C90-4BEA-925B-EBB54CDE0D2F}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{C4FEC3CC-9A99-433E-84EC-02AF1BF8DA6E}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{948CC883-2C90-4BEA-925B-EBB54CDE0D2F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/employee_data.xlsx
+++ b/employee_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\works\기타\인사팀 자동화\interview_scheduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAD1295-A240-4290-889C-846B88A2F679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC1A313-01DC-456E-82E0-82C81F0E5B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="345" yWindow="2625" windowWidth="21555" windowHeight="12855" xr2:uid="{4A936CD7-6CD0-4EE6-9CA4-ED4D89A062C0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>사번</t>
   </si>
@@ -75,6 +75,34 @@
   </si>
   <si>
     <t>mkbang@ajnet.co.kr</t>
+  </si>
+  <si>
+    <t>허재원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인사팀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jwheo@ajnet.co.kr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>권혜민</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hmkwon@ajnet.co.kr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신윤정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>syj0103@ajnet.co.kr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -508,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73437572-9AD9-4C44-8D54-D48A3361AA98}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -586,12 +614,57 @@
         <v>6</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>666666</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>777777</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>888888</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{34597E8E-B5FE-476B-B474-E202A254E714}"/>
     <hyperlink ref="D4" r:id="rId2" xr:uid="{C4FEC3CC-9A99-433E-84EC-02AF1BF8DA6E}"/>
     <hyperlink ref="D5" r:id="rId3" xr:uid="{948CC883-2C90-4BEA-925B-EBB54CDE0D2F}"/>
+    <hyperlink ref="D6" r:id="rId4" xr:uid="{2B4AD12F-219F-4F93-97E8-964A7A56A1AB}"/>
+    <hyperlink ref="D7" r:id="rId5" xr:uid="{53F2D4E5-6FC9-4683-BAB4-40033F1A434E}"/>
+    <hyperlink ref="D8" r:id="rId6" xr:uid="{092BC872-0F5C-47B1-8134-8B105AE2CD6F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/employee_data.xlsx
+++ b/employee_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\works\기타\인사팀 자동화\interview_scheduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC1A313-01DC-456E-82E0-82C81F0E5B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34D788B-61D9-45A0-94E6-96BAE540E5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="2625" windowWidth="21555" windowHeight="12855" xr2:uid="{4A936CD7-6CD0-4EE6-9CA4-ED4D89A062C0}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{4A936CD7-6CD0-4EE6-9CA4-ED4D89A062C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>사번</t>
   </si>
@@ -102,6 +102,68 @@
   </si>
   <si>
     <t>syj0103@ajnet.co.kr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>곽지혜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이두현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>임유진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김명환</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김지수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이영주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jhrd0317@ajnet.co.kr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dohlee@ajnet.co.kr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>imnew524@ajnet.co.kr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>myunghwan@ajnet.co.kr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jisoo.kim@ajnet.co.kr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>youngjoo6651</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>@ajnet.co.kr</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -109,7 +171,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +200,15 @@
       <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -536,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73437572-9AD9-4C44-8D54-D48A3361AA98}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="A6" sqref="A6:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -654,6 +725,90 @@
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>999999</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>123456</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>123457</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>123458</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>123459</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>123450</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -665,6 +820,12 @@
     <hyperlink ref="D6" r:id="rId4" xr:uid="{2B4AD12F-219F-4F93-97E8-964A7A56A1AB}"/>
     <hyperlink ref="D7" r:id="rId5" xr:uid="{53F2D4E5-6FC9-4683-BAB4-40033F1A434E}"/>
     <hyperlink ref="D8" r:id="rId6" xr:uid="{092BC872-0F5C-47B1-8134-8B105AE2CD6F}"/>
+    <hyperlink ref="D9" r:id="rId7" xr:uid="{8DEA8E5B-21E4-4DF2-A47B-6E6F67DF7BD2}"/>
+    <hyperlink ref="D10" r:id="rId8" xr:uid="{E713CF24-F6A2-484E-8A30-71A9893D079A}"/>
+    <hyperlink ref="D11" r:id="rId9" xr:uid="{7C1231C1-C658-4819-8D18-C62E4021C51A}"/>
+    <hyperlink ref="D12" r:id="rId10" xr:uid="{A704D531-BD7D-46BE-844A-61750693201C}"/>
+    <hyperlink ref="D13" r:id="rId11" xr:uid="{1C9ECF78-B23E-44E9-B65F-64BE092808B8}"/>
+    <hyperlink ref="D14" r:id="rId12" xr:uid="{DEDD27EB-8C6D-4CEA-9EF9-DABCDB639160}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/employee_data.xlsx
+++ b/employee_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\works\기타\인사팀 자동화\interview_scheduler\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34D788B-61D9-45A0-94E6-96BAE540E5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317767A1-C749-4C67-8E31-3FA176CD20FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{4A936CD7-6CD0-4EE6-9CA4-ED4D89A062C0}"/>
+    <workbookView xWindow="345" yWindow="2625" windowWidth="21555" windowHeight="12855" xr2:uid="{4A936CD7-6CD0-4EE6-9CA4-ED4D89A062C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
   <si>
     <t>사번</t>
   </si>
@@ -164,6 +164,26 @@
       </rPr>
       <t>@ajnet.co.kr</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>독고주연</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보전략팀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jadilli@naver.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남궁주연</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jyjung0820@gmail.com</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -607,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73437572-9AD9-4C44-8D54-D48A3361AA98}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:D14"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -809,6 +829,34 @@
       </c>
       <c r="D14" s="3" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>123123</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>124124</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -826,6 +874,8 @@
     <hyperlink ref="D12" r:id="rId10" xr:uid="{A704D531-BD7D-46BE-844A-61750693201C}"/>
     <hyperlink ref="D13" r:id="rId11" xr:uid="{1C9ECF78-B23E-44E9-B65F-64BE092808B8}"/>
     <hyperlink ref="D14" r:id="rId12" xr:uid="{DEDD27EB-8C6D-4CEA-9EF9-DABCDB639160}"/>
+    <hyperlink ref="D15" r:id="rId13" xr:uid="{A3E8B266-83EB-44B2-8E2F-C9A4A233CE31}"/>
+    <hyperlink ref="D16" r:id="rId14" xr:uid="{C83BE7F8-7B55-41B0-91DE-EB154A397EBD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
